--- a/Data/HK_R_acc_G_1.xlsx
+++ b/Data/HK_R_acc_G_1.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -69,247 +75,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.64835164835165</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>86.263736263736263</v>
+        <v>92.389006342494724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.340659340659343</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>84.395604395604394</v>
+        <v>93.446088794926013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>84.505494505494511</v>
+        <v>93.446088794926013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>86.043956043956044</v>
+        <v>96.40591966173362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>84.395604395604394</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>85.54945054945054</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>84.230769230769226</v>
+        <v>92.494714587737846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>84.230769230769226</v>
+        <v>92.494714587737846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>85.824175824175825</v>
+        <v>95.560253699788589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>86.483516483516482</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>83.791208791208788</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>84.395604395604394</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>84.120879120879124</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>84.72527472527473</v>
+        <v>93.446088794926013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>86.263736263736263</v>
+        <v>96.40591966173362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>86.263736263736263</v>
+        <v>96.40591966173362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.747252747252745</v>
+        <v>93.657505285412256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.384615384615387</v>
+        <v>93.657505285412256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.912087912087912</v>
+        <v>93.763213530655392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>85.384615384615387</v>
+        <v>95.877378435517969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>85.054945054945051</v>
+        <v>95.877378435517969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>85.219780219780219</v>
+        <v>95.560253699788589</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>84.505494505494511</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.450549450549445</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.615384615384613</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>86.043956043956044</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>85.054945054945051</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>85.27472527472527</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>84.340659340659343</v>
+        <v>92.917547568710361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>84.615384615384613</v>
+        <v>93.551797040169134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>84.285714285714292</v>
+        <v>92.917547568710361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>85.384615384615387</v>
+        <v>93.128964059196619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>85.659340659340657</v>
+        <v>93.234672304439741</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>91.758241758241752</v>
+        <v>96.511627906976756</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>84.835164835164832</v>
+        <v>93.234672304439741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.329670329670321</v>
+        <v>93.023255813953483</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.428571428571431</v>
+        <v>95.983086680761105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.27472527472527</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>85.27472527472527</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>85.439560439560438</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.494505494505489</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.439560439560438</v>
+        <v>92.706131078224104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.340659340659343</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>84.560439560439562</v>
+        <v>92.177589852008452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>86.593406593406598</v>
+        <v>92.811839323467225</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>85</v>
+        <v>92.177589852008452</v>
       </c>
     </row>
   </sheetData>
